--- a/DATA/includeTips.2018-10-30-v2.xlsx
+++ b/DATA/includeTips.2018-10-30-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\2021-oak-classification\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahipp\Documents\CODE\2021-oak-classification\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD67EA-9B56-49FD-BB9B-CF4B7E2A9691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946FA23F-C813-4DEB-B71C-60BD44905675}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,16 +19,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'includeTips.2018-10-30-v2'!$J$1:$J$722</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">'includeTips.2018-10-30-v2'!$B$1:$B$722</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="1507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="1507">
   <si>
     <t>sortOrder</t>
   </si>
@@ -4948,29 +4940,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B436" sqref="B436"/>
+    <sheetView tabSelected="1" topLeftCell="A641" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C658" sqref="C658"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.31640625"/>
-    <col min="2" max="2" width="102.76953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.40625"/>
-    <col min="5" max="5" width="5.76953125"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.40625"/>
-    <col min="8" max="8" width="11.76953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.40625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="67.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.58984375"/>
-    <col min="14" max="14" width="17.31640625"/>
-    <col min="15" max="1027" width="8.58984375"/>
+    <col min="1" max="1" width="8.28515625"/>
+    <col min="2" max="2" width="102.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125"/>
+    <col min="5" max="5" width="5.7109375"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125"/>
+    <col min="14" max="14" width="17.28515625"/>
+    <col min="15" max="1027" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5014,7 +5006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5041,7 +5033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5065,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5089,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5113,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5137,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5161,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5185,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5209,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5233,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5266,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5299,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5332,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5365,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5398,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5431,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5464,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5497,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5530,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5560,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5593,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5626,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5659,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5692,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5725,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5758,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5794,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5827,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5860,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5893,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5926,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5959,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5992,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6025,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6058,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6091,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6124,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6157,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6190,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6223,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6256,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6289,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6322,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6355,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6388,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6421,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6454,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6487,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6520,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6553,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6586,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6619,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6652,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6685,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6718,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6751,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6784,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6817,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6850,7 +6842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6883,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6916,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6949,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6982,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7015,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7048,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7081,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7114,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7147,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7180,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7213,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7246,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7279,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7312,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7345,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7378,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7411,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7444,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7477,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7510,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7543,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7576,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7612,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7645,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7678,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7711,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7744,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7777,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7810,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7843,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7876,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7909,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7945,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7978,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8011,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8044,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8077,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8110,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8143,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8179,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8212,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8245,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8278,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8311,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8344,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8377,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8410,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8443,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8476,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8509,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8542,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8575,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8608,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8641,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8674,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8707,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8740,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8776,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8812,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8845,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8878,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8911,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8947,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8980,7 +8972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9016,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9052,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9085,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9118,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9154,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9187,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9220,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9253,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9286,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9319,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9352,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9388,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9421,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9454,7 +9446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9487,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9523,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9556,7 +9548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9592,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9628,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9664,7 +9656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9700,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9736,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9772,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9808,7 +9800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9844,7 +9836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9880,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9916,7 +9908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9949,7 +9941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9985,7 +9977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10021,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10054,7 +10046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10087,7 +10079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10120,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10153,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10186,7 +10178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10219,7 +10211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10252,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10285,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10318,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10351,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10384,7 +10376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10417,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10450,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10483,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10516,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10549,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10582,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10615,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10648,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10681,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10714,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10747,7 +10739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10780,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10813,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10846,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10879,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10912,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10945,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10978,7 +10970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11011,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11044,7 +11036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11077,7 +11069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11110,7 +11102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11143,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -11176,7 +11168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -11209,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11242,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11275,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11308,7 +11300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11341,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11374,7 +11366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11407,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11440,7 +11432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11473,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11506,7 +11498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11539,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11572,7 +11564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11602,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11635,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11668,7 +11660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11701,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11734,7 +11726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11767,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11800,7 +11792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11833,7 +11825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11866,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11899,7 +11891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11932,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11965,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11998,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -12031,7 +12023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -12064,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -12097,7 +12089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -12130,7 +12122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12163,7 +12155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -12196,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12229,7 +12221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12262,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12295,7 +12287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12328,7 +12320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12361,7 +12353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12394,7 +12386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12427,7 +12419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12460,7 +12452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12493,7 +12485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12526,7 +12518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12559,7 +12551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12592,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12625,7 +12617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12658,7 +12650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12691,7 +12683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12724,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12757,7 +12749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12790,7 +12782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12823,7 +12815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12856,7 +12848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12889,7 +12881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12922,7 +12914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12955,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12988,7 +12980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -13021,7 +13013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -13054,7 +13046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -13087,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -13120,7 +13112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -13153,7 +13145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -13186,7 +13178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -13219,7 +13211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -13252,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -13285,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -13318,7 +13310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -13351,7 +13343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -13384,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -13417,7 +13409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -13450,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13483,7 +13475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13516,7 +13508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13549,7 +13541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13582,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13615,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13651,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13684,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13717,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13750,7 +13742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -13786,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13822,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13855,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -13888,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -13921,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -13954,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13990,7 +13982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -14026,7 +14018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -14059,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -14095,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -14131,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -14164,7 +14156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -14197,7 +14189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -14230,7 +14222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -14263,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -14296,7 +14288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -14329,7 +14321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -14362,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -14395,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -14428,7 +14420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -14461,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -14494,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -14527,7 +14519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14563,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14596,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14629,7 +14621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14665,7 +14657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14698,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14731,7 +14723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14764,7 +14756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14797,7 +14789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14830,7 +14822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14863,7 +14855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14896,7 +14888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14929,7 +14921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14962,7 +14954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14998,7 +14990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -15034,7 +15026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -15067,7 +15059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -15100,7 +15092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -15133,7 +15125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15166,7 +15158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -15199,7 +15191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -15232,7 +15224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15265,7 +15257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15298,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15331,7 +15323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15367,7 +15359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15400,7 +15392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15433,7 +15425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15466,7 +15458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15499,7 +15491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15532,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15565,7 +15557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15601,7 +15593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15634,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -15667,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -15700,7 +15692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -15733,7 +15725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -15766,7 +15758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -15799,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -15832,7 +15824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -15865,7 +15857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -15898,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -15931,7 +15923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -15964,7 +15956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -15997,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -16030,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16063,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16096,7 +16088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16129,7 +16121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16162,7 +16154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16198,7 +16190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16234,7 +16226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -16267,7 +16259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -16300,7 +16292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -16333,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -16369,7 +16361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -16402,7 +16394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16438,7 +16430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16474,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16507,7 +16499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -16540,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -16576,7 +16568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -16609,7 +16601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -16642,7 +16634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -16675,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -16708,7 +16700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -16741,7 +16733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -16774,7 +16766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -16810,7 +16802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -16843,7 +16835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -16876,7 +16868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -16909,7 +16901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -16945,7 +16937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -16978,7 +16970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -17014,7 +17006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -17050,7 +17042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -17086,7 +17078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -17122,7 +17114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -17158,7 +17150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -17194,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -17230,7 +17222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -17266,7 +17258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -17302,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -17338,7 +17330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -17371,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -17407,7 +17399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -17443,7 +17435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -17476,7 +17468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -17509,7 +17501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -17542,7 +17534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -17572,7 +17564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -17602,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -17632,7 +17624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -17662,7 +17654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -17692,7 +17684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -17725,7 +17717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -17758,7 +17750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -17788,7 +17780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -17818,7 +17810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -17851,7 +17843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -17881,7 +17873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -17911,7 +17903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -17941,7 +17933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -17971,7 +17963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -18001,7 +17993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -18031,7 +18023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -18061,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -18091,7 +18083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -18121,7 +18113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -18154,7 +18146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -18184,7 +18176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -18214,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -18247,7 +18239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -18280,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -18313,7 +18305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -18346,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -18379,7 +18371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -18412,7 +18404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -18445,7 +18437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -18478,7 +18470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -18511,7 +18503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -18544,7 +18536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -18577,7 +18569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -18610,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -18643,7 +18635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -18676,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -18709,7 +18701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -18742,7 +18734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -18775,7 +18767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -18808,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -18841,7 +18833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -18874,7 +18866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -18907,7 +18899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -18940,7 +18932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -18973,7 +18965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -19006,7 +18998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -19042,7 +19034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -19078,7 +19070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -19114,7 +19106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -19147,7 +19139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -19180,7 +19172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -19213,7 +19205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -19246,7 +19238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -19279,7 +19271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -19315,7 +19307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -19351,7 +19343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -19387,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -19423,7 +19415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -19459,7 +19451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -19492,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -19528,7 +19520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -19564,7 +19556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -19600,7 +19592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -19633,7 +19625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -19669,7 +19661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -19705,7 +19697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -19738,7 +19730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -19774,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -19807,7 +19799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -19840,7 +19832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -19873,7 +19865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -19909,7 +19901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -19942,7 +19934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -19975,7 +19967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -20008,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -20041,7 +20033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -20074,7 +20066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -20107,7 +20099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -20140,7 +20132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -20173,7 +20165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -20206,7 +20198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -20239,7 +20231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -20272,7 +20264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -20305,7 +20297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -20338,7 +20330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -20371,7 +20363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -20404,7 +20396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -20440,7 +20432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -20473,7 +20465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -20506,7 +20498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -20539,7 +20531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -20572,7 +20564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -20605,7 +20597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -20638,7 +20630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -20671,7 +20663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -20707,7 +20699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -20740,7 +20732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -20773,7 +20765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -20806,7 +20798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -20839,7 +20831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -20872,7 +20864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -20905,7 +20897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -20938,7 +20930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -20971,7 +20963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -21007,7 +20999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -21040,7 +21032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -21076,7 +21068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -21112,7 +21104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -21148,7 +21140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -21184,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -21220,7 +21212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -21256,7 +21248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -21292,7 +21284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -21328,7 +21320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -21364,7 +21356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -21397,7 +21389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -21430,7 +21422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -21466,7 +21458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -21499,7 +21491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -21532,7 +21524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -21565,7 +21557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -21598,7 +21590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -21631,7 +21623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -21664,7 +21656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -21697,7 +21689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -21730,7 +21722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -21763,7 +21755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -21796,7 +21788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -21826,7 +21818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -21859,7 +21851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -21892,7 +21884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -21925,7 +21917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -21958,7 +21950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
@@ -21991,7 +21983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
@@ -22024,7 +22016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
@@ -22057,7 +22049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
@@ -22090,7 +22082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
@@ -22123,7 +22115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
@@ -22156,7 +22148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
@@ -22186,7 +22178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
@@ -22216,7 +22208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
@@ -22246,7 +22238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
@@ -22276,7 +22268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
@@ -22306,7 +22298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
@@ -22336,7 +22328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
@@ -22369,7 +22361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
@@ -22402,7 +22394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>525</v>
       </c>
@@ -22435,7 +22427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
@@ -22465,7 +22457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
@@ -22498,7 +22490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
@@ -22531,7 +22523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>529</v>
       </c>
@@ -22564,7 +22556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
@@ -22597,7 +22589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
@@ -22630,7 +22622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
@@ -22663,7 +22655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
@@ -22696,7 +22688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
@@ -22726,7 +22718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
@@ -22756,7 +22748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
@@ -22786,7 +22778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
@@ -22816,7 +22808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>538</v>
       </c>
@@ -22846,7 +22838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>539</v>
       </c>
@@ -22876,7 +22868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>540</v>
       </c>
@@ -22906,7 +22898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>541</v>
       </c>
@@ -22936,7 +22928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>542</v>
       </c>
@@ -22966,7 +22958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>543</v>
       </c>
@@ -22996,7 +22988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>544</v>
       </c>
@@ -23026,7 +23018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>545</v>
       </c>
@@ -23056,7 +23048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>546</v>
       </c>
@@ -23086,7 +23078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>547</v>
       </c>
@@ -23116,7 +23108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>548</v>
       </c>
@@ -23146,7 +23138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>549</v>
       </c>
@@ -23176,7 +23168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>550</v>
       </c>
@@ -23206,7 +23198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>551</v>
       </c>
@@ -23236,7 +23228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>552</v>
       </c>
@@ -23266,7 +23258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>553</v>
       </c>
@@ -23296,7 +23288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>554</v>
       </c>
@@ -23326,7 +23318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>555</v>
       </c>
@@ -23356,7 +23348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>556</v>
       </c>
@@ -23386,7 +23378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>557</v>
       </c>
@@ -23416,7 +23408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>558</v>
       </c>
@@ -23446,7 +23438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>559</v>
       </c>
@@ -23476,7 +23468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>560</v>
       </c>
@@ -23506,7 +23498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>561</v>
       </c>
@@ -23536,7 +23528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>562</v>
       </c>
@@ -23566,7 +23558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>563</v>
       </c>
@@ -23599,7 +23591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>564</v>
       </c>
@@ -23632,7 +23624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>565</v>
       </c>
@@ -23665,7 +23657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>566</v>
       </c>
@@ -23698,7 +23690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>567</v>
       </c>
@@ -23731,7 +23723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>568</v>
       </c>
@@ -23764,7 +23756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>569</v>
       </c>
@@ -23794,7 +23786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>570</v>
       </c>
@@ -23827,7 +23819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>571</v>
       </c>
@@ -23860,7 +23852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>572</v>
       </c>
@@ -23893,7 +23885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>573</v>
       </c>
@@ -23926,7 +23918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>574</v>
       </c>
@@ -23959,7 +23951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>575</v>
       </c>
@@ -23992,7 +23984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>576</v>
       </c>
@@ -24025,7 +24017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>577</v>
       </c>
@@ -24058,7 +24050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>578</v>
       </c>
@@ -24091,7 +24083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>579</v>
       </c>
@@ -24124,7 +24116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>580</v>
       </c>
@@ -24154,7 +24146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>581</v>
       </c>
@@ -24187,7 +24179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>582</v>
       </c>
@@ -24220,7 +24212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>583</v>
       </c>
@@ -24253,7 +24245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>584</v>
       </c>
@@ -24286,7 +24278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>585</v>
       </c>
@@ -24319,7 +24311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>586</v>
       </c>
@@ -24352,7 +24344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>587</v>
       </c>
@@ -24385,7 +24377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>588</v>
       </c>
@@ -24418,7 +24410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>589</v>
       </c>
@@ -24451,7 +24443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>590</v>
       </c>
@@ -24484,7 +24476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>591</v>
       </c>
@@ -24517,7 +24509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>592</v>
       </c>
@@ -24550,7 +24542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>593</v>
       </c>
@@ -24583,7 +24575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>594</v>
       </c>
@@ -24616,7 +24608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>595</v>
       </c>
@@ -24649,7 +24641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>596</v>
       </c>
@@ -24682,7 +24674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>597</v>
       </c>
@@ -24715,7 +24707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>598</v>
       </c>
@@ -24748,7 +24740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>599</v>
       </c>
@@ -24781,7 +24773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>600</v>
       </c>
@@ -24814,7 +24806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>601</v>
       </c>
@@ -24847,7 +24839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>602</v>
       </c>
@@ -24880,7 +24872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>603</v>
       </c>
@@ -24913,7 +24905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>604</v>
       </c>
@@ -24946,7 +24938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>605</v>
       </c>
@@ -24979,7 +24971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>606</v>
       </c>
@@ -25012,7 +25004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>607</v>
       </c>
@@ -25045,7 +25037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>608</v>
       </c>
@@ -25078,7 +25070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>609</v>
       </c>
@@ -25111,7 +25103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>610</v>
       </c>
@@ -25144,7 +25136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>611</v>
       </c>
@@ -25177,7 +25169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>612</v>
       </c>
@@ -25210,7 +25202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>613</v>
       </c>
@@ -25243,7 +25235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>614</v>
       </c>
@@ -25276,7 +25268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>615</v>
       </c>
@@ -25309,7 +25301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>616</v>
       </c>
@@ -25342,7 +25334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>617</v>
       </c>
@@ -25375,7 +25367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>618</v>
       </c>
@@ -25408,7 +25400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>619</v>
       </c>
@@ -25444,7 +25436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>620</v>
       </c>
@@ -25477,7 +25469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>621</v>
       </c>
@@ -25510,7 +25502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>622</v>
       </c>
@@ -25543,7 +25535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>623</v>
       </c>
@@ -25576,7 +25568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>624</v>
       </c>
@@ -25609,7 +25601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>625</v>
       </c>
@@ -25642,7 +25634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>626</v>
       </c>
@@ -25675,7 +25667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>627</v>
       </c>
@@ -25708,7 +25700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>628</v>
       </c>
@@ -25741,7 +25733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>629</v>
       </c>
@@ -25774,7 +25766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>630</v>
       </c>
@@ -25807,7 +25799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>631</v>
       </c>
@@ -25843,7 +25835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>632</v>
       </c>
@@ -25876,7 +25868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>633</v>
       </c>
@@ -25909,7 +25901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>634</v>
       </c>
@@ -25942,7 +25934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>635</v>
       </c>
@@ -25975,7 +25967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>636</v>
       </c>
@@ -26008,7 +26000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>637</v>
       </c>
@@ -26041,7 +26033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>638</v>
       </c>
@@ -26074,7 +26066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>639</v>
       </c>
@@ -26107,7 +26099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>640</v>
       </c>
@@ -26140,7 +26132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>641</v>
       </c>
@@ -26173,7 +26165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>642</v>
       </c>
@@ -26206,7 +26198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>643</v>
       </c>
@@ -26239,7 +26231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>644</v>
       </c>
@@ -26272,7 +26264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>645</v>
       </c>
@@ -26305,7 +26297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>646</v>
       </c>
@@ -26341,7 +26333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>647</v>
       </c>
@@ -26377,7 +26369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>648</v>
       </c>
@@ -26416,7 +26408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>649</v>
       </c>
@@ -26449,7 +26441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>650</v>
       </c>
@@ -26482,7 +26474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>651</v>
       </c>
@@ -26515,7 +26507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>652</v>
       </c>
@@ -26551,7 +26543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>653</v>
       </c>
@@ -26584,7 +26576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>654</v>
       </c>
@@ -26620,7 +26612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>655</v>
       </c>
@@ -26656,7 +26648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>656</v>
       </c>
@@ -26692,15 +26684,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>657</v>
       </c>
       <c r="B658" t="s">
         <v>1300</v>
       </c>
-      <c r="C658" s="4" t="b">
-        <v>0</v>
+      <c r="C658" s="4" t="s">
+        <v>1502</v>
       </c>
       <c r="D658" s="4" t="b">
         <v>1</v>
@@ -26728,7 +26720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>658</v>
       </c>
@@ -26764,7 +26756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>659</v>
       </c>
@@ -26797,7 +26789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>660</v>
       </c>
@@ -26833,7 +26825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>661</v>
       </c>
@@ -26869,7 +26861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>662</v>
       </c>
@@ -26905,7 +26897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>663</v>
       </c>
@@ -26938,7 +26930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>664</v>
       </c>
@@ -26977,7 +26969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>665</v>
       </c>
@@ -27013,7 +27005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>666</v>
       </c>
@@ -27046,7 +27038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>667</v>
       </c>
@@ -27082,7 +27074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>668</v>
       </c>
@@ -27115,7 +27107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>669</v>
       </c>
@@ -27148,7 +27140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>670</v>
       </c>
@@ -27181,7 +27173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>671</v>
       </c>
@@ -27217,7 +27209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>672</v>
       </c>
@@ -27250,7 +27242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>673</v>
       </c>
@@ -27283,7 +27275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>674</v>
       </c>
@@ -27316,7 +27308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>675</v>
       </c>
@@ -27352,7 +27344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>676</v>
       </c>
@@ -27385,7 +27377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>677</v>
       </c>
@@ -27418,7 +27410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>678</v>
       </c>
@@ -27451,7 +27443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>679</v>
       </c>
@@ -27484,7 +27476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>680</v>
       </c>
@@ -27517,7 +27509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>681</v>
       </c>
@@ -27550,7 +27542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>682</v>
       </c>
@@ -27583,7 +27575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>683</v>
       </c>
@@ -27616,7 +27608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>684</v>
       </c>
@@ -27649,7 +27641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>685</v>
       </c>
@@ -27682,7 +27674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>686</v>
       </c>
@@ -27715,7 +27707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>687</v>
       </c>
@@ -27751,7 +27743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>688</v>
       </c>
@@ -27784,7 +27776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>689</v>
       </c>
@@ -27817,7 +27809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>690</v>
       </c>
@@ -27850,7 +27842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>691</v>
       </c>
@@ -27886,7 +27878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>692</v>
       </c>
@@ -27919,7 +27911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>693</v>
       </c>
@@ -27952,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>694</v>
       </c>
@@ -27985,7 +27977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>695</v>
       </c>
@@ -28021,7 +28013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>696</v>
       </c>
@@ -28054,7 +28046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>697</v>
       </c>
@@ -28087,7 +28079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>698</v>
       </c>
@@ -28120,7 +28112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>699</v>
       </c>
@@ -28153,7 +28145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>700</v>
       </c>
@@ -28186,7 +28178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>701</v>
       </c>
@@ -28219,7 +28211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>702</v>
       </c>
@@ -28255,7 +28247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>703</v>
       </c>
@@ -28288,7 +28280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>704</v>
       </c>
@@ -28324,7 +28316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>705</v>
       </c>
@@ -28357,7 +28349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>706</v>
       </c>
@@ -28393,7 +28385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>707</v>
       </c>
@@ -28429,7 +28421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>708</v>
       </c>
@@ -28465,7 +28457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>709</v>
       </c>
@@ -28501,7 +28493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>710</v>
       </c>
@@ -28537,7 +28529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>711</v>
       </c>
@@ -28573,7 +28565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>712</v>
       </c>
@@ -28609,7 +28601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>713</v>
       </c>
@@ -28645,7 +28637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>714</v>
       </c>
@@ -28681,7 +28673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>715</v>
       </c>
@@ -28714,7 +28706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>716</v>
       </c>
@@ -28747,7 +28739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>717</v>
       </c>
@@ -28780,7 +28772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>718</v>
       </c>
@@ -28813,7 +28805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>719</v>
       </c>
@@ -28846,7 +28838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>720</v>
       </c>
@@ -28879,7 +28871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>721</v>
       </c>
